--- a/Data/Transitions/19331934Translation.xlsx
+++ b/Data/Transitions/19331934Translation.xlsx
@@ -64,7 +64,7 @@
     <t>{13.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 1.0, 178.0: 0.00016231131309852296, 623.0: 0.0007625438462711606, 696.0: 0.0029159241859711645}</t>
+    <t>{14.0: 1.0, 178.0: 0.00016329196603527107, 623.0: 0.0007645259938837921, 696.0: 0.002995008319467554}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -328,7 +328,7 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.9753473778574631}</t>
+    <t>{171.0: 0.9757245843754597}</t>
   </si>
   <si>
     <t>{172.0: 1.0}</t>
@@ -349,7 +349,7 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9998376886869015}</t>
+    <t>{178.0: 0.9998367080339647}</t>
   </si>
   <si>
     <t>{179.0: 1.0}</t>
@@ -367,7 +367,7 @@
     <t>{183.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.997979117547996, 778.0: 0.0005968011458582001}</t>
+    <t>{184.0: 0.9979626485568761, 778.0: 0.0005811250581125058}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -376,7 +376,7 @@
     <t>{202.0: 1.0}</t>
   </si>
   <si>
-    <t>{203.0: 0.8504763219660362}</t>
+    <t>{203.0: 0.8511544804837823}</t>
   </si>
   <si>
     <t>{204.0: 1.0}</t>
@@ -415,7 +415,7 @@
     <t>{215.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.3432385374347069}</t>
+    <t>{265.0: 0.25544229440221145}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
@@ -433,7 +433,7 @@
     <t>{222.0: 1.0}</t>
   </si>
   <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -484,6 +484,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -547,7 +550,7 @@
     <t>{264.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.6567614625652931}</t>
+    <t>{265.0: 0.7445577055977886}</t>
   </si>
   <si>
     <t>{267.0: 1.0}</t>
@@ -562,7 +565,7 @@
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -703,9 +706,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -1066,7 +1066,7 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9987619047619047}</t>
+    <t>{593.0: 0.9987622584023612}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -1153,7 +1153,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1249,7 +1249,7 @@
     <t>{695.0: 1.0}</t>
   </si>
   <si>
-    <t>{696.0: 0.9970840758140288}</t>
+    <t>{696.0: 0.9970049916805325}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1309,7 +1309,7 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
@@ -1423,7 +1423,7 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9994031988541417, 171.0: 0.024652622142536978, 184.0: 0.0020208824520040417, 593.0: 0.001238095238095238}</t>
+    <t>{778.0: 0.9994188749418875, 171.0: 0.024275415624540237, 184.0: 0.0020373514431239388, 593.0: 0.00123774159763877}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
@@ -1471,10 +1471,10 @@
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9951622083096187, 836.0: 0.014775977121067683}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9852240228789323, 835.0: 0.004837791690381332}</t>
+    <t>{835.0: 0.9949748743718593, 836.0: 0.014039855072463768}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9859601449275363, 835.0: 0.005025125628140704}</t>
   </si>
   <si>
     <t>{837.0: 1.0}</t>
@@ -1756,7 +1756,7 @@
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919250645994832, 178.0: 0.0006459948320413437, 623.0: 0.001614987080103359, 696.0: 0.005813953488372093}</t>
+    <t>{14.0: 0.9919302775984506, 178.0: 0.0006455777921239509, 623.0: 0.0016139444803098773, 696.0: 0.005810200129115558}</t>
   </si>
   <si>
     <t>{171.0: 1.0}</t>
@@ -1765,7 +1765,7 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.9983153638814016, 778.0: 0.0016846361185983828}</t>
+    <t>{184.0: 0.9983016304347826, 778.0: 0.0016983695652173913}</t>
   </si>
   <si>
     <t>{203.0: 1.0}</t>
@@ -1783,7 +1783,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.8601619027150942, 321.0: 0.1398380972849058}</t>
+    <t>{497.0: 0.8695187165775401, 321.0: 0.1304812834224599}</t>
   </si>
   <si>
     <t>{593.0: 1.0}</t>
@@ -1795,16 +1795,16 @@
     <t>{696.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 0.9266375545851528, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
-  </si>
-  <si>
-    <t>{778.0: 0.9784971368470258, 171.0: 0.019282458805656186, 184.0: 0.0007011803202056796, 593.0: 0.0015192240271123057}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9912131519274376, 836.0: 0.008786848072562359}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646834, 835.0: 0.008157389635316698}</t>
+    <t>{737.0: 0.9279588336192109, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
+  </si>
+  <si>
+    <t>{778.0: 0.9790504383468064, 171.0: 0.01878629169987476, 184.0: 0.0006831378799954458, 593.0: 0.001480132073323466}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9908743008536944, 836.0: 0.009125699146305564}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597994, 835.0: 0.007748404740200547}</t>
   </si>
 </sst>
 </file>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4095,29 +4095,29 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>585</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>178</v>
+        <v>585</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4150,29 +4150,29 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>587</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>587</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
